--- a/product_checkout_test.xlsx
+++ b/product_checkout_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\DZ8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16CE96F-B495-4C7F-87F7-0DB0E0C525D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1ED16-26EA-4024-9E2A-DFC5D72B12A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t xml:space="preserve">Интернет-магазин nopCommerce </t>
   </si>
@@ -103,11 +103,6 @@
 </t>
   </si>
   <si>
-    <t>1. Открывается главная страница
-2. Переходим на страницу логина
-3. Открывется личный кабинет: есть ссылка "My Account", есть ссылка для выхода</t>
-  </si>
-  <si>
     <t>TRS-123</t>
   </si>
   <si>
@@ -135,59 +130,108 @@
     <t>Проверка входа в систему при неверном логине</t>
   </si>
   <si>
-    <t>1. Открывается главная страница
-2. Переходим на страницу логина
-3. Над формой отображается сообщение об ошибке "Login was unsuccessful. Please correct the errors and try again. The credentials provided are incorrect"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. http://192.168.56.1:8777
 3. user@userqa.com
 4. 1234567
 </t>
   </si>
   <si>
+    <t>Пользователя не должно быть заведено в системе</t>
+  </si>
+  <si>
+    <t>TRS-127</t>
+  </si>
+  <si>
+    <t>Добавление товаров в корзину</t>
+  </si>
+  <si>
+    <t>Проверка наличия товаров в корзине</t>
+  </si>
+  <si>
+    <t>Пользователя должен быть залогинен в системе</t>
+  </si>
+  <si>
     <t>1. Открывается главная страница
 2. Переходим на страницу логина
-3. Над формой отображается сообщение об ошибке "Login was unsuccessful. Please correct the errors and try again. No customer account found"</t>
-  </si>
-  <si>
-    <t>Пользователя не должно быть заведено в системе</t>
-  </si>
-  <si>
-    <t>TRS-127</t>
-  </si>
-  <si>
-    <t>Добавление товаров в корзину</t>
-  </si>
-  <si>
-    <t>Проверка наличия товаров в корзине</t>
-  </si>
-  <si>
-    <t>Пользователя должен быть залогинен в системе</t>
-  </si>
-  <si>
-    <t>1. Открывается страница с телефонами
+5. Открывется личный кабинет: есть ссылка "My Account", есть ссылка для выхода</t>
+  </si>
+  <si>
+    <t>1. Открывается главная страница
+2. Переходим на страницу логина
+5. Над формой отображается сообщение об ошибке "Login was unsuccessful. Please correct the errors and try again. The credentials provided are incorrect"</t>
+  </si>
+  <si>
+    <t>1. Открывается главная страница
+2. Переходим на страницу логина
+5. Над формой отображается сообщение об ошибке "Login was unsuccessful. Please correct the errors and try again. No customer account found"</t>
+  </si>
+  <si>
+    <t>TRS-128</t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>1. Пользователя должен быть залогинен в системе
+2. Товар должен быть добавлен в корзине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Переходим на страницу с товароми
+2. Выбрав нужный товар. 
+3. Нажимаем кнопу "Add to cart"
+4. Переходим по кнопе в гавном меню "Shopping cart"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открывается страница с телефонами
 2. В верху страницы на зеленом фоне появляется надпись "The product has been added to your shopping cart"
-3. Откроется корзины с выбранным товаром
-4. Должна отобразиться галачка в пустом квадратике
-5. Откроется страница Оформления заказа
-6. Появится траница метод доставки</t>
-  </si>
-  <si>
-    <t>1. http://192.168.56.1:8777/cell-phones
-3. http://192.168.56.1:8777/cart
-5. http://192.168.56.1:8777/onepagecheckout#opc-billing
-6. http://192.168.56.1:8777/onepagecheckout#opc-shipping_method</t>
-  </si>
-  <si>
-    <t>1. Переходим на страницу с товароми
-2. Выбрав нужный товар. Нажимаем кнопу "Add to cart"
-3. Переходим по кнопе в гавном меню "Shopping cart"
-4. Ставим галачку напртив соглашения "I agree with the terms of service and I adhere to them unconditionally (read)"
-5. Жмем кнопу "Checkout" под соглашением
-6. Выбираем адрес доставки "John Smith, 21 West 52nd Street, New York, New York 10021, United States of America"
-7. Жмем кнопу "Continue"
-8. Отсавляем по умолчанию галачку Ground (0,00 ₽) и жмем "Continue"</t>
+4. Откроется корзина с выбранным товаром
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. IULIIA SOROKINA
+11. 4366 2767 8308 1827
+12. 01/2024
+13. 283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. http://192.168.56.1:8777/cell-phones
+</t>
+  </si>
+  <si>
+    <t>1. Откроется корзина с выбранным товаром
+2. Должна отобразиться галачка в пустом квадратике
+3. Откроется страница Оформления заказа
+5. Появится страница метод доставки
+6. Откроется страница способ оплаты
+7. Пред надписью "Credit Card" появится галачка
+8. Откроется страница Информация об оплате
+14. Откроется страница подтверждения заказа
+15. Отобразится страница с успешнай обработкой заказа и надписью "Thank you
+Your order has been successfully processed!"</t>
+  </si>
+  <si>
+    <t>1. Переходим по кнопе в гавном меню "Shopping cart"
+2. Ставим галачку напртив соглашения "I agree with the terms of service and I adhere to them unconditionally (read)"
+3. Жмем кнопу "Checkout" под соглашением
+4. Выбираем адрес доставки "John Smith, 21 West 52nd Street, New York, New York 10021, United States of America"
+5. Жмем кнопу "Continue"
+6. Отсавляем по умолчанию галачку "Ground (0,00 ₽)" и жмем "Continue"
+7. Выбираем способ оплаты "Credit Card"
+8. Жмем "Continue"
+9. Оставляем по умолчанию поле "Select credit card:" Visa
+10. Заполняем поле "Cardholder name:"
+11. Заполняем поле "Card number:"
+12. Выбираем данные из спска "Expiration date:"
+13. Заполняем поле "Card code:"
+14. Жмем кнопу "Continue"
+15. Нажимаем кнопку "Confirm"</t>
+  </si>
+  <si>
+    <t>Данные карты VISA были взяты с генератора тестовых карт https://cartoved.ru/common/generator-kreditnyh-kart.html</t>
+  </si>
+  <si>
+    <t>Проверка успешной обратботки заказа</t>
   </si>
 </sst>
 </file>
@@ -617,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,11 +674,11 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="27.140625" customWidth="1"/>
   </cols>
@@ -727,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="13">
@@ -751,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>20</v>
@@ -760,16 +804,16 @@
         <v>21</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="13">
@@ -787,32 +831,32 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -820,32 +864,70 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
